--- a/doc/Meilenstein 4/Appendix/Philipp/daten_philipp.xlsx
+++ b/doc/Meilenstein 4/Appendix/Philipp/daten_philipp.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
   <si>
     <t>name</t>
   </si>
@@ -111,6 +111,9 @@
   </si>
   <si>
     <t>JB</t>
+  </si>
+  <si>
+    <t>PH</t>
   </si>
 </sst>
 </file>
@@ -214,16 +217,12 @@
       <protection hidden="false" locked="true"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf applyAlignment="false" applyBorder="false" applyFont="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0">
       <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
       <protection hidden="false" locked="true"/>
     </xf>
     <xf applyAlignment="true" applyBorder="false" applyFont="true" applyProtection="true" borderId="1" fillId="0" fontId="4" numFmtId="164" xfId="20">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="5" numFmtId="164" xfId="0">
       <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
       <protection hidden="false" locked="true"/>
     </xf>
@@ -239,7 +238,7 @@
     <cellStyle builtinId="4" customBuiltin="false" name="Currency" xfId="17"/>
     <cellStyle builtinId="7" customBuiltin="false" name="Currency [0]" xfId="18"/>
     <cellStyle builtinId="5" customBuiltin="false" name="Percent" xfId="19"/>
-    <cellStyle builtinId="54" customBuiltin="true" name="Excel Built-in Heading 1" xfId="20"/>
+    <cellStyle builtinId="54" customBuiltin="true" name="Excel Built-in Excel Built-in Heading 1" xfId="20"/>
   </cellStyles>
   <colors>
     <indexedColors>
@@ -312,7 +311,7 @@
   <dimension ref="A1:AE3"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="AB1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="W3" activeCellId="0" pane="topLeft" sqref="W3"/>
+      <selection activeCell="AE4" activeCellId="0" pane="topLeft" sqref="AE4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20"/>
@@ -449,25 +448,25 @@
       <c r="A2" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B2" s="3" t="n">
+      <c r="B2" s="2" t="n">
         <v>122</v>
       </c>
-      <c r="C2" s="3" t="n">
+      <c r="C2" s="2" t="n">
         <v>177</v>
       </c>
-      <c r="D2" s="3" t="n">
+      <c r="D2" s="2" t="n">
         <v>47</v>
       </c>
-      <c r="E2" s="3" t="n">
+      <c r="E2" s="2" t="n">
         <v>17</v>
       </c>
-      <c r="F2" s="3" t="n">
+      <c r="F2" s="2" t="n">
         <v>29</v>
       </c>
-      <c r="G2" s="3" t="n">
+      <c r="G2" s="2" t="n">
         <v>32</v>
       </c>
-      <c r="H2" s="3" t="n">
+      <c r="H2" s="2" t="n">
         <v>4</v>
       </c>
       <c r="I2" s="2" t="n">
@@ -491,7 +490,7 @@
       <c r="O2" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="P2" s="3" t="n">
+      <c r="P2" s="2" t="n">
         <v>7</v>
       </c>
       <c r="Q2" s="2" t="n">
@@ -515,7 +514,7 @@
       <c r="W2" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="X2" s="3" t="n">
+      <c r="X2" s="2" t="n">
         <v>1</v>
       </c>
       <c r="Y2" s="2" t="n">
@@ -540,9 +539,101 @@
         <v>4</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="19.3" outlineLevel="0" r="3"/>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="19.3" outlineLevel="0" r="4"/>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="19.3" outlineLevel="0" r="5"/>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="19.3" outlineLevel="0" r="3">
+      <c r="A3" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B3" s="2" t="n">
+        <v>97</v>
+      </c>
+      <c r="C3" s="2" t="n">
+        <v>133</v>
+      </c>
+      <c r="D3" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="E3" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="F3" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="G3" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="H3" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="I3" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="J3" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="K3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L3" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="M3" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="N3" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="O3" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="P3" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="Q3" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="R3" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="S3" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="T3" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="U3" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="V3" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="W3" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="X3" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y3" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA3" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="AB3" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="AC3" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="AD3" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="AE3" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
